--- a/input/params_special - group example.xlsx
+++ b/input/params_special - group example.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work Projects\cpv\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sobczakk\OneDrive - Takeda\Documents\GIT REPOS\cpv\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E44B34EF95BADF1DD56D12B94C902A23CE87C9F6" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{42111D68-14B9-4915-B665-688F898CFDEA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5235" windowWidth="23670" windowHeight="5565" tabRatio="500"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,7 +272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,6 +526,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -560,6 +578,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -735,12 +770,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +837,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -842,7 +878,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -1703,7 +1739,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>6</v>
       </c>
@@ -1744,7 +1780,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -1785,7 +1821,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
@@ -1826,7 +1862,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>6</v>
       </c>
@@ -1867,7 +1903,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>6</v>
       </c>
@@ -1908,7 +1944,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>6</v>
       </c>
@@ -1949,7 +1985,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>6</v>
       </c>
@@ -1990,7 +2026,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>6</v>
       </c>
@@ -2031,7 +2067,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
@@ -2072,7 +2108,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>6</v>
       </c>
@@ -2113,7 +2149,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
@@ -2154,7 +2190,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
@@ -2195,7 +2231,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
@@ -2236,7 +2272,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
@@ -2277,7 +2313,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>6</v>
       </c>
@@ -2318,7 +2354,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>6</v>
       </c>
@@ -2359,7 +2395,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
@@ -2400,7 +2436,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>6</v>
       </c>
@@ -2441,7 +2477,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>6</v>
       </c>
@@ -2482,7 +2518,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>6</v>
       </c>
@@ -2523,7 +2559,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>6</v>
       </c>
@@ -2564,7 +2600,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>20</v>
       </c>
@@ -2605,7 +2641,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>20</v>
       </c>
@@ -2646,7 +2682,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>20</v>
       </c>
@@ -2687,7 +2723,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>20</v>
       </c>
@@ -2728,7 +2764,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>20</v>
       </c>
@@ -2769,7 +2805,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>20</v>
       </c>
@@ -2810,7 +2846,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>20</v>
       </c>
@@ -2851,7 +2887,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>20</v>
       </c>
@@ -2892,7 +2928,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>20</v>
       </c>
@@ -2933,7 +2969,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>20</v>
       </c>
@@ -2974,7 +3010,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>20</v>
       </c>
@@ -3015,7 +3051,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>20</v>
       </c>
@@ -3056,7 +3092,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>20</v>
       </c>
@@ -3097,7 +3133,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>20</v>
       </c>
@@ -3138,7 +3174,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>20</v>
       </c>
@@ -3179,7 +3215,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>20</v>
       </c>
@@ -3220,7 +3256,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>20</v>
       </c>
@@ -3261,7 +3297,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>20</v>
       </c>
@@ -3302,7 +3338,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>20</v>
       </c>
@@ -3343,7 +3379,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>20</v>
       </c>
@@ -3384,7 +3420,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>20</v>
       </c>
@@ -3425,7 +3461,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>20</v>
       </c>
@@ -3466,7 +3502,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>20</v>
       </c>
@@ -3507,7 +3543,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>20</v>
       </c>
@@ -3548,7 +3584,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>20</v>
       </c>
@@ -3589,7 +3625,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>20</v>
       </c>
@@ -3630,7 +3666,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>20</v>
       </c>
@@ -3671,7 +3707,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>20</v>
       </c>
@@ -3712,7 +3748,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>20</v>
       </c>
@@ -3753,7 +3789,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>20</v>
       </c>
@@ -3794,7 +3830,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>20</v>
       </c>
@@ -3835,7 +3871,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>20</v>
       </c>
@@ -3876,7 +3912,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>20</v>
       </c>
@@ -3917,7 +3953,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>20</v>
       </c>
@@ -3958,7 +3994,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>20</v>
       </c>
@@ -3999,7 +4035,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>20</v>
       </c>
@@ -4040,7 +4076,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>20</v>
       </c>
@@ -4081,7 +4117,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>20</v>
       </c>
@@ -4122,7 +4158,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>20</v>
       </c>
@@ -4163,7 +4199,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>20</v>
       </c>
@@ -4204,7 +4240,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>20</v>
       </c>
@@ -4245,7 +4281,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>20</v>
       </c>
@@ -4286,7 +4322,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>20</v>
       </c>
@@ -4327,7 +4363,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>43</v>
       </c>
@@ -4368,7 +4404,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>43</v>
       </c>
@@ -4409,7 +4445,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>43</v>
       </c>
@@ -4450,7 +4486,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>43</v>
       </c>
@@ -4491,7 +4527,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>43</v>
       </c>
@@ -4532,7 +4568,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>43</v>
       </c>
@@ -4573,7 +4609,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>43</v>
       </c>
@@ -4614,7 +4650,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>43</v>
       </c>
@@ -4655,7 +4691,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>43</v>
       </c>
@@ -4696,7 +4732,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>43</v>
       </c>
@@ -4737,7 +4773,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>43</v>
       </c>
@@ -4778,7 +4814,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>43</v>
       </c>
@@ -4819,7 +4855,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>43</v>
       </c>
@@ -4860,7 +4896,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>43</v>
       </c>
@@ -4901,7 +4937,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>43</v>
       </c>
@@ -4942,7 +4978,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>43</v>
       </c>
@@ -4983,7 +5019,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>43</v>
       </c>
@@ -5024,7 +5060,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>43</v>
       </c>
@@ -5065,7 +5101,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>43</v>
       </c>
@@ -5106,7 +5142,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>43</v>
       </c>
@@ -5147,7 +5183,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>43</v>
       </c>
@@ -5188,7 +5224,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>43</v>
       </c>
@@ -5229,7 +5265,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>43</v>
       </c>
@@ -5270,7 +5306,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>43</v>
       </c>
@@ -5311,7 +5347,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>43</v>
       </c>
@@ -5352,7 +5388,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>43</v>
       </c>
@@ -5393,7 +5429,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>43</v>
       </c>
@@ -5434,7 +5470,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>43</v>
       </c>
@@ -5475,7 +5511,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>43</v>
       </c>
@@ -5516,7 +5552,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>43</v>
       </c>
@@ -5557,7 +5593,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>43</v>
       </c>
@@ -5598,7 +5634,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>43</v>
       </c>
@@ -5639,7 +5675,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>43</v>
       </c>
@@ -5680,7 +5716,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>43</v>
       </c>
@@ -5721,7 +5757,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>43</v>
       </c>
@@ -5762,7 +5798,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>43</v>
       </c>
@@ -5803,7 +5839,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>43</v>
       </c>
@@ -5844,7 +5880,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>43</v>
       </c>
@@ -5885,7 +5921,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>43</v>
       </c>
@@ -5926,7 +5962,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>43</v>
       </c>
@@ -5967,7 +6003,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>43</v>
       </c>
@@ -6008,7 +6044,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>43</v>
       </c>
@@ -6049,7 +6085,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>47</v>
       </c>
@@ -6090,7 +6126,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>47</v>
       </c>
@@ -6131,7 +6167,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>47</v>
       </c>
@@ -6172,7 +6208,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>47</v>
       </c>
@@ -6213,7 +6249,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>47</v>
       </c>
@@ -6254,7 +6290,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>47</v>
       </c>
@@ -6295,7 +6331,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>47</v>
       </c>
@@ -6336,7 +6372,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>47</v>
       </c>
@@ -6377,7 +6413,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>47</v>
       </c>
@@ -6418,7 +6454,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>47</v>
       </c>
@@ -6459,7 +6495,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>47</v>
       </c>
@@ -6500,7 +6536,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>47</v>
       </c>
@@ -6541,7 +6577,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>47</v>
       </c>
@@ -6582,7 +6618,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>47</v>
       </c>
@@ -6623,7 +6659,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>47</v>
       </c>
@@ -6664,7 +6700,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>47</v>
       </c>
@@ -6705,7 +6741,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>47</v>
       </c>
@@ -6746,7 +6782,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>47</v>
       </c>
@@ -6787,7 +6823,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>47</v>
       </c>
@@ -6828,7 +6864,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>47</v>
       </c>
@@ -6869,7 +6905,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>47</v>
       </c>
@@ -6910,7 +6946,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>47</v>
       </c>
@@ -6951,7 +6987,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>47</v>
       </c>
@@ -6992,7 +7028,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>47</v>
       </c>
@@ -7033,7 +7069,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>47</v>
       </c>
@@ -7074,7 +7110,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>47</v>
       </c>
@@ -7115,7 +7151,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
         <v>47</v>
       </c>
@@ -7156,7 +7192,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>47</v>
       </c>
@@ -7197,7 +7233,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>47</v>
       </c>
@@ -7238,7 +7274,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>47</v>
       </c>
@@ -7279,7 +7315,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>47</v>
       </c>
@@ -7320,7 +7356,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>47</v>
       </c>
@@ -7361,7 +7397,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>47</v>
       </c>
@@ -7402,7 +7438,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>47</v>
       </c>
@@ -7443,7 +7479,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>47</v>
       </c>
@@ -7484,7 +7520,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>47</v>
       </c>
@@ -7525,7 +7561,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
         <v>47</v>
       </c>
@@ -7566,7 +7602,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>47</v>
       </c>
@@ -7607,7 +7643,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>47</v>
       </c>
@@ -7648,7 +7684,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>47</v>
       </c>
@@ -7689,7 +7725,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>47</v>
       </c>
@@ -7730,7 +7766,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>47</v>
       </c>
@@ -7771,7 +7807,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>14</v>
       </c>
@@ -7812,7 +7848,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
         <v>14</v>
       </c>
@@ -7853,7 +7889,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
         <v>14</v>
       </c>
@@ -7894,7 +7930,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
         <v>14</v>
       </c>
@@ -7935,7 +7971,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
         <v>14</v>
       </c>
@@ -7976,7 +8012,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>14</v>
       </c>
@@ -8017,7 +8053,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>14</v>
       </c>
@@ -8058,7 +8094,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>14</v>
       </c>
@@ -8099,7 +8135,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>14</v>
       </c>
@@ -8140,7 +8176,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>14</v>
       </c>
@@ -8181,7 +8217,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
         <v>14</v>
       </c>
@@ -8222,7 +8258,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
         <v>14</v>
       </c>
@@ -8263,7 +8299,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
         <v>14</v>
       </c>
@@ -8304,7 +8340,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>14</v>
       </c>
@@ -8345,7 +8381,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
         <v>14</v>
       </c>
@@ -8386,7 +8422,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
         <v>14</v>
       </c>
@@ -8427,7 +8463,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>14</v>
       </c>
@@ -8468,7 +8504,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>14</v>
       </c>
@@ -8509,7 +8545,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
         <v>14</v>
       </c>
@@ -8550,7 +8586,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>14</v>
       </c>
@@ -8591,7 +8627,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>14</v>
       </c>
@@ -8632,7 +8668,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>14</v>
       </c>
@@ -8673,7 +8709,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
         <v>14</v>
       </c>
@@ -8714,7 +8750,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>14</v>
       </c>
@@ -8755,7 +8791,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>14</v>
       </c>
@@ -8796,7 +8832,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>14</v>
       </c>
@@ -8837,7 +8873,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>14</v>
       </c>
@@ -8878,7 +8914,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>14</v>
       </c>
@@ -8919,7 +8955,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>14</v>
       </c>
@@ -8960,7 +8996,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
         <v>14</v>
       </c>
@@ -9001,7 +9037,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>14</v>
       </c>
@@ -9042,7 +9078,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>14</v>
       </c>
@@ -9083,7 +9119,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
         <v>14</v>
       </c>
@@ -9124,7 +9160,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>14</v>
       </c>
@@ -9165,7 +9201,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>14</v>
       </c>
@@ -9206,7 +9242,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>14</v>
       </c>
@@ -9247,7 +9283,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>14</v>
       </c>
@@ -9288,7 +9324,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>14</v>
       </c>
@@ -9329,7 +9365,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>14</v>
       </c>
@@ -9370,7 +9406,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
         <v>14</v>
       </c>
@@ -9411,7 +9447,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>14</v>
       </c>
@@ -9452,7 +9488,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>14</v>
       </c>
@@ -9493,7 +9529,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>14</v>
       </c>
@@ -9534,7 +9570,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>14</v>
       </c>
@@ -9575,7 +9611,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>14</v>
       </c>
@@ -9616,7 +9652,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
         <v>14</v>
       </c>
@@ -9657,7 +9693,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
         <v>14</v>
       </c>
@@ -9698,7 +9734,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
         <v>14</v>
       </c>
@@ -9739,7 +9775,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
         <v>14</v>
       </c>
@@ -9780,7 +9816,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
         <v>14</v>
       </c>
@@ -9821,7 +9857,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
         <v>14</v>
       </c>
@@ -9862,7 +9898,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
         <v>14</v>
       </c>
@@ -9904,8 +9940,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M223"/>
-  <sortState ref="A2:N223">
+  <autoFilter ref="A1:M223" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N223">
     <sortCondition ref="A2:A223"/>
     <sortCondition ref="B2:B223"/>
     <sortCondition ref="C2:C223"/>
@@ -9917,7 +9959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -9933,7 +9975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
